--- a/Data/Results/RQ1/entity-ownership.xlsx
+++ b/Data/Results/RQ1/entity-ownership.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\ownership\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022ASE\data\Data\Results\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB5170-B01F-470E-90CE-2494288C7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F53C00-9A68-4FA2-945D-035B9F68FE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22785" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19710" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>version</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>intrusive native</t>
+  </si>
+  <si>
+    <t>IndustrialX-S</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndustrialX-R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVERAGE(close)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -511,7 +523,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,28 +1041,76 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1462593</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1079689</v>
+      </c>
+      <c r="D15" s="5">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5">
+        <v>25360</v>
+      </c>
+      <c r="F15" s="5">
+        <v>357474</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.73820194681637341</v>
+      </c>
+      <c r="H15" s="7">
+        <f>D15/B15</f>
+        <v>4.2390466794248301E-5</v>
+      </c>
+      <c r="I15" s="4">
+        <f>E15/B15</f>
+        <v>1.7339068353260271E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <f>F15/B15</f>
+        <v>0.24441112462592121</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1181811</v>
+      </c>
+      <c r="C16" s="5">
+        <v>985928</v>
+      </c>
+      <c r="D16" s="5">
+        <v>116</v>
+      </c>
+      <c r="E16" s="5">
+        <v>18854</v>
+      </c>
+      <c r="F16" s="5">
+        <v>176846</v>
+      </c>
+      <c r="G16" s="4">
+        <f>C16/B16</f>
+        <v>0.83425183891502108</v>
+      </c>
+      <c r="H16" s="4">
+        <f>D16/B16</f>
+        <v>9.8154442630843676E-5</v>
+      </c>
+      <c r="I16" s="4">
+        <f>E16/B16</f>
+        <v>1.5953481563464884E-2</v>
+      </c>
+      <c r="J16" s="4">
+        <f>F16/B16</f>
+        <v>0.14963983242667397</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -1078,19 +1138,34 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="G18" s="8">
+        <f>AVERAGE(G15:G16)</f>
+        <v>0.78622689286569725</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:J18" si="5">AVERAGE(H15:H16)</f>
+        <v>7.0272454712545985E-5</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="5"/>
+        <v>1.6646274958362579E-2</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="5"/>
+        <v>0.19702547852629759</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>